--- a/target/test-classes/Mapligikstudentid.xlsx
+++ b/target/test-classes/Mapligikstudentid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAI PAVEEN\eclipse-workspace\CucumberMaplogikProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A7797F-70D3-4119-9DBA-B4C3583E8B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2508318-4541-4610-8C19-DBEC97AACFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0F1F7C8E-D95B-411B-B18F-3A4805510BF1}"/>
   </bookViews>
@@ -35,16 +35,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>7BCHSC0601</t>
-  </si>
-  <si>
-    <t>7BCHSC0602</t>
-  </si>
-  <si>
     <t>student_id</t>
   </si>
   <si>
     <t>phone_number</t>
+  </si>
+  <si>
+    <t>4RECSC0603</t>
+  </si>
+  <si>
+    <t>4RECSC0602</t>
   </si>
 </sst>
 </file>
@@ -423,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177671A1-4B62-4C0C-A751-02D9BB88E097}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B10" sqref="B10:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,27 +437,30 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>9486031753</v>
+        <v>9092323050</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>8939290840</v>
       </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
